--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H2">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I2">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J2">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3363556666666667</v>
+        <v>0.379829</v>
       </c>
       <c r="N2">
-        <v>1.009067</v>
+        <v>1.139487</v>
       </c>
       <c r="O2">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="P2">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="Q2">
-        <v>16.30799427604166</v>
+        <v>12.23530623343</v>
       </c>
       <c r="R2">
-        <v>146.771948484375</v>
+        <v>110.11775610087</v>
       </c>
       <c r="S2">
-        <v>0.00780930572954914</v>
+        <v>0.008555106333306911</v>
       </c>
       <c r="T2">
-        <v>0.007809305729549138</v>
+        <v>0.008555106333306911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H3">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I3">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J3">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.511159333333333</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N3">
         <v>16.533478</v>
       </c>
       <c r="O3">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="P3">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="Q3">
-        <v>267.2051158020833</v>
+        <v>177.5291569220867</v>
       </c>
       <c r="R3">
-        <v>2404.84604221875</v>
+        <v>1597.76241229878</v>
       </c>
       <c r="S3">
-        <v>0.1279548181387109</v>
+        <v>0.1241310013623591</v>
       </c>
       <c r="T3">
-        <v>0.1279548181387109</v>
+        <v>0.1241310013623591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H4">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I4">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J4">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.383269666666667</v>
+        <v>1.075784333333333</v>
       </c>
       <c r="N4">
-        <v>4.149809</v>
+        <v>3.227353</v>
       </c>
       <c r="O4">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="P4">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="Q4">
-        <v>67.06696524479167</v>
+        <v>34.65388572083667</v>
       </c>
       <c r="R4">
-        <v>603.602687203125</v>
+        <v>311.88497148753</v>
       </c>
       <c r="S4">
-        <v>0.03211593204438812</v>
+        <v>0.02423050731611423</v>
       </c>
       <c r="T4">
-        <v>0.03211593204438812</v>
+        <v>0.02423050731611423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.484375</v>
+        <v>32.21267</v>
       </c>
       <c r="H5">
-        <v>145.453125</v>
+        <v>96.63801000000001</v>
       </c>
       <c r="I5">
-        <v>0.7776469276297807</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="J5">
-        <v>0.7776469276297806</v>
+        <v>0.7096649552378644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.26335166666667</v>
+        <v>24.54088133333333</v>
       </c>
       <c r="N5">
-        <v>78.790055</v>
+        <v>73.62264399999999</v>
       </c>
       <c r="O5">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="P5">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="Q5">
-        <v>1273.362190963541</v>
+        <v>790.5273118998267</v>
       </c>
       <c r="R5">
-        <v>11460.25971867187</v>
+        <v>7114.74580709844</v>
       </c>
       <c r="S5">
-        <v>0.6097668717171325</v>
+        <v>0.5527483402260842</v>
       </c>
       <c r="T5">
-        <v>0.6097668717171325</v>
+        <v>0.5527483402260842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J6">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3363556666666667</v>
+        <v>0.379829</v>
       </c>
       <c r="N6">
-        <v>1.009067</v>
+        <v>1.139487</v>
       </c>
       <c r="O6">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="P6">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="Q6">
-        <v>3.858499769661556</v>
+        <v>4.357203562332667</v>
       </c>
       <c r="R6">
-        <v>34.726497926954</v>
+        <v>39.21483206099401</v>
       </c>
       <c r="S6">
-        <v>0.001847695298921568</v>
+        <v>0.003046620908414298</v>
       </c>
       <c r="T6">
-        <v>0.001847695298921567</v>
+        <v>0.003046620908414298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J7">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.511159333333333</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N7">
         <v>16.533478</v>
       </c>
       <c r="O7">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="P7">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="Q7">
-        <v>63.22119448431511</v>
+        <v>63.22119448431513</v>
       </c>
       <c r="R7">
-        <v>568.990750358836</v>
+        <v>568.9907503588361</v>
       </c>
       <c r="S7">
-        <v>0.03027433220531755</v>
+        <v>0.04420519037392073</v>
       </c>
       <c r="T7">
-        <v>0.03027433220531754</v>
+        <v>0.04420519037392073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J8">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.383269666666667</v>
+        <v>1.075784333333333</v>
       </c>
       <c r="N8">
-        <v>4.149809</v>
+        <v>3.227353</v>
       </c>
       <c r="O8">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="P8">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="Q8">
-        <v>15.86816045975089</v>
+        <v>12.34084635323178</v>
       </c>
       <c r="R8">
-        <v>142.813444137758</v>
+        <v>111.067617179086</v>
       </c>
       <c r="S8">
-        <v>0.007598685301097362</v>
+        <v>0.008628901539581943</v>
       </c>
       <c r="T8">
-        <v>0.007598685301097361</v>
+        <v>0.008628901539581943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="J9">
-        <v>0.1839926137051496</v>
+        <v>0.2527239295880077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.26335166666667</v>
+        <v>24.54088133333333</v>
       </c>
       <c r="N9">
-        <v>78.790055</v>
+        <v>73.62264399999999</v>
       </c>
       <c r="O9">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="P9">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="Q9">
-        <v>301.2797059750455</v>
+        <v>281.5204093641698</v>
       </c>
       <c r="R9">
-        <v>2711.51735377541</v>
+        <v>2533.683684277528</v>
       </c>
       <c r="S9">
-        <v>0.1442719008998131</v>
+        <v>0.1968432167660907</v>
       </c>
       <c r="T9">
-        <v>0.1442719008998131</v>
+        <v>0.1968432167660907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H10">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J10">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3363556666666667</v>
+        <v>0.379829</v>
       </c>
       <c r="N10">
-        <v>1.009067</v>
+        <v>1.139487</v>
       </c>
       <c r="O10">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="P10">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="Q10">
-        <v>0.6845673099905556</v>
+        <v>0.4859465122876667</v>
       </c>
       <c r="R10">
-        <v>6.161105789915</v>
+        <v>4.373518610589</v>
       </c>
       <c r="S10">
-        <v>0.0003278144035177382</v>
+        <v>0.0003397809589400994</v>
       </c>
       <c r="T10">
-        <v>0.0003278144035177382</v>
+        <v>0.0003397809589400994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H11">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J11">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.511159333333333</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N11">
         <v>16.533478</v>
       </c>
       <c r="O11">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="P11">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="Q11">
-        <v>11.21657784790111</v>
+        <v>7.050879887251778</v>
       </c>
       <c r="R11">
-        <v>100.94920063111</v>
+        <v>63.45791898526601</v>
       </c>
       <c r="S11">
-        <v>0.005371211454386722</v>
+        <v>0.004930079070191268</v>
       </c>
       <c r="T11">
-        <v>0.005371211454386722</v>
+        <v>0.004930079070191268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H12">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J12">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.383269666666667</v>
+        <v>1.075784333333333</v>
       </c>
       <c r="N12">
-        <v>4.149809</v>
+        <v>3.227353</v>
       </c>
       <c r="O12">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="P12">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="Q12">
-        <v>2.815297283633889</v>
+        <v>1.376339470543444</v>
       </c>
       <c r="R12">
-        <v>25.337675552705</v>
+        <v>12.387055234891</v>
       </c>
       <c r="S12">
-        <v>0.001348143544529294</v>
+        <v>0.0009623568300280798</v>
       </c>
       <c r="T12">
-        <v>0.001348143544529294</v>
+        <v>0.0009623568300280798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.035248333333334</v>
+        <v>1.279382333333333</v>
       </c>
       <c r="H13">
-        <v>6.105745000000001</v>
+        <v>3.838147</v>
       </c>
       <c r="I13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="J13">
-        <v>0.03264360143613893</v>
+        <v>0.02818558059040478</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.26335166666667</v>
+        <v>24.54088133333333</v>
       </c>
       <c r="N13">
-        <v>78.790055</v>
+        <v>73.62264399999999</v>
       </c>
       <c r="O13">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="P13">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="Q13">
-        <v>53.45244270733055</v>
+        <v>31.39717002229644</v>
       </c>
       <c r="R13">
-        <v>481.071984365975</v>
+        <v>282.5745302006679</v>
       </c>
       <c r="S13">
-        <v>0.02559643203370518</v>
+        <v>0.02195336373124534</v>
       </c>
       <c r="T13">
-        <v>0.02559643203370518</v>
+        <v>0.02195336373124534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H14">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I14">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J14">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3363556666666667</v>
+        <v>0.379829</v>
       </c>
       <c r="N14">
-        <v>1.009067</v>
+        <v>1.139487</v>
       </c>
       <c r="O14">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="P14">
-        <v>0.01004222540086594</v>
+        <v>0.01205513428578339</v>
       </c>
       <c r="Q14">
-        <v>0.1198879229813333</v>
+        <v>0.162505279702</v>
       </c>
       <c r="R14">
-        <v>1.078991306832</v>
+        <v>1.462547517318</v>
       </c>
       <c r="S14">
-        <v>5.740996887749214E-05</v>
+        <v>0.0001136260851220765</v>
       </c>
       <c r="T14">
-        <v>5.740996887749214E-05</v>
+        <v>0.0001136260851220766</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H15">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I15">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J15">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.511159333333333</v>
+        <v>5.511159333333334</v>
       </c>
       <c r="N15">
         <v>16.533478</v>
       </c>
       <c r="O15">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="P15">
-        <v>0.1645410193141369</v>
+        <v>0.17491493760003</v>
       </c>
       <c r="Q15">
-        <v>1.964353543498666</v>
+        <v>2.357883386854667</v>
       </c>
       <c r="R15">
-        <v>17.679181891488</v>
+        <v>21.220950481692</v>
       </c>
       <c r="S15">
-        <v>0.0009406575157216528</v>
+        <v>0.001648666793558838</v>
       </c>
       <c r="T15">
-        <v>0.0009406575157216527</v>
+        <v>0.001648666793558838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H16">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I16">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J16">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.383269666666667</v>
+        <v>1.075784333333333</v>
       </c>
       <c r="N16">
-        <v>4.149809</v>
+        <v>3.227353</v>
       </c>
       <c r="O16">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="P16">
-        <v>0.04129886057966625</v>
+        <v>0.034143587248144</v>
       </c>
       <c r="Q16">
-        <v>0.4930415738293333</v>
+        <v>0.4602614176046665</v>
       </c>
       <c r="R16">
-        <v>4.437374164464</v>
+        <v>4.142352758442</v>
       </c>
       <c r="S16">
-        <v>0.000236099689651467</v>
+        <v>0.0003218215624197459</v>
       </c>
       <c r="T16">
-        <v>0.0002360996896514669</v>
+        <v>0.0003218215624197459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3564319999999999</v>
+        <v>0.4278379999999999</v>
       </c>
       <c r="H17">
-        <v>1.069296</v>
+        <v>1.283514</v>
       </c>
       <c r="I17">
-        <v>0.005716857228930721</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="J17">
-        <v>0.00571685722893072</v>
+        <v>0.009425534583723031</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.26335166666667</v>
+        <v>24.54088133333333</v>
       </c>
       <c r="N17">
-        <v>78.790055</v>
+        <v>73.62264399999999</v>
       </c>
       <c r="O17">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="P17">
-        <v>0.784117894705331</v>
+        <v>0.7788863408660427</v>
       </c>
       <c r="Q17">
-        <v>9.361098961253331</v>
+        <v>10.49952158789066</v>
       </c>
       <c r="R17">
-        <v>84.24989065127998</v>
+        <v>94.49569429101598</v>
       </c>
       <c r="S17">
-        <v>0.00448269005468011</v>
+        <v>0.007341420142622371</v>
       </c>
       <c r="T17">
-        <v>0.004482690054680109</v>
+        <v>0.007341420142622371</v>
       </c>
     </row>
   </sheetData>
